--- a/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
@@ -1152,10 +1152,18 @@
       <c r="H19" t="n">
         <v>6.159961061279065</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.6029679772580818</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1447845907655555</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.05323863284599652</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.161267405311866</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>11.20024383451704</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.3696246258455235</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2702026041520829</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2461390038637574</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.549338570627156</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1194,10 +1202,18 @@
       <c r="H20" t="n">
         <v>6.704854669944143</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.1617039438647276</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3695633939073046</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01276248446693575</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.004878396784024</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
@@ -552,19 +552,19 @@
         <v>0.1424657534246575</v>
       </c>
       <c r="D3" t="n">
-        <v>114835.712991253</v>
+        <v>114809.1445951256</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004818899285591346</v>
+        <v>0.003576722866815468</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16910620248649</v>
+        <v>0.1743548175092166</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9871524232827842</v>
+        <v>-1.24027945782484</v>
       </c>
       <c r="H3" t="n">
-        <v>10.37210502485985</v>
+        <v>12.80407949960986</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.3150684931506849</v>
       </c>
       <c r="D5" t="n">
-        <v>116381.2525554511</v>
+        <v>116325.2464969409</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.008110998023447421</v>
+        <v>-0.0103538473338915</v>
       </c>
       <c r="F5" t="n">
-        <v>0.201380271937157</v>
+        <v>0.2094537712470498</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.337836645263252</v>
+        <v>-0.5649424201763125</v>
       </c>
       <c r="H5" t="n">
-        <v>5.096838885845862</v>
+        <v>6.337688917480493</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3917808219178082</v>
       </c>
       <c r="D6" t="n">
-        <v>116873.398706885</v>
+        <v>116871.397138604</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02124710082795685</v>
+        <v>-0.02160594021322244</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2429309966339556</v>
+        <v>0.2456644722650489</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.038227226585002</v>
+        <v>-1.144754130656355</v>
       </c>
       <c r="H6" t="n">
-        <v>8.733690319528128</v>
+        <v>9.807314815827729</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.8136986301369863</v>
       </c>
       <c r="D8" t="n">
-        <v>118554.6716641329</v>
+        <v>118561.0680239532</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04143425817580232</v>
+        <v>-0.04113472434600543</v>
       </c>
       <c r="F8" t="n">
-        <v>0.220800778017366</v>
+        <v>0.219440043213397</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.006909828444854</v>
+        <v>-0.9638952800651271</v>
       </c>
       <c r="H8" t="n">
-        <v>7.418605688663203</v>
+        <v>7.068729980009683</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.13972602739726</v>
       </c>
       <c r="D10" t="n">
-        <v>121607.0949775229</v>
+        <v>121603.4984421285</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1107452506615366</v>
+        <v>-0.1121906042081966</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4414889064114417</v>
+        <v>0.4518727963833705</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.806372493312923</v>
+        <v>-1.926037355388787</v>
       </c>
       <c r="H10" t="n">
-        <v>8.662903964774683</v>
+        <v>9.652337182867271</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.386301369863014</v>
       </c>
       <c r="D11" t="n">
-        <v>123632.8046948242</v>
+        <v>123587.8951666179</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.171695955575428</v>
+        <v>-0.1907619684239391</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6475454911123698</v>
+        <v>0.7871013029880372</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.941806633255182</v>
+        <v>-2.566932794915534</v>
       </c>
       <c r="H11" t="n">
-        <v>7.372433551165671</v>
+        <v>12.30667083467826</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D13" t="n">
-        <v>114009.9656383743</v>
+        <v>114010.7588166195</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03511798311255078</v>
+        <v>0.03515425101939375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1265058427859599</v>
+        <v>0.1266137549804476</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.830915757556605</v>
+        <v>-0.8228202288947295</v>
       </c>
       <c r="H13" t="n">
-        <v>5.062902467525729</v>
+        <v>5.116702023556766</v>
       </c>
       <c r="I13" t="n">
         <v>0.687383893369981</v>
@@ -1020,19 +1020,19 @@
         <v>0.005479452054794521</v>
       </c>
       <c r="D16" t="n">
-        <v>114087.1730195547</v>
+        <v>114118.7208139588</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08641199803746755</v>
+        <v>0.09080598801097335</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1565685597839581</v>
+        <v>0.137834123331885</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.248788522784693</v>
+        <v>-1.095117187842219</v>
       </c>
       <c r="H16" t="n">
-        <v>22.31164533426595</v>
+        <v>7.578411553270487</v>
       </c>
       <c r="I16" t="n">
         <v>0.343991616020774</v>
@@ -1104,19 +1104,19 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="D18" t="n">
-        <v>114136.1948434793</v>
+        <v>114162.8701792075</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03404398460817592</v>
+        <v>0.03627691649043972</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1251342909811458</v>
+        <v>0.1130336715582912</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.797011493972931</v>
+        <v>-0.8938703146187099</v>
       </c>
       <c r="H18" t="n">
-        <v>16.21879105389259</v>
+        <v>7.360073493273855</v>
       </c>
       <c r="I18" t="n">
         <v>0.7825043909478854</v>

--- a/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>12.80407949960986</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.1393267909113778</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2724517406765992</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.02156419203430372</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.44379544612499</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
+++ b/data_processed/20250805/BTCUSDQMOMENT_20250805.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>13.28835826560207</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.12315217332237</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4834173371618073</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4079614427643469</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.682563357569987</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
